--- a/id_ok.xlsx
+++ b/id_ok.xlsx
@@ -125,11 +125,11 @@
   </sheetPr>
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:A200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -138,243 +138,315 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>684</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>399</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>677</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>161</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>427</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>950</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>81</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>901</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>544</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>426</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>128</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
         <v>672</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>569</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>765</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>809</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>790</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>754</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>37</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>947</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>727</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>592</v>
+        <v>862</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <f aca="false">RANDBETWEEN(0,1000)</f>
-        <v>57</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>507</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>167</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>192</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>290</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>474</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>161</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>552</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>861</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>269</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>838</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>227</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>196</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>92</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>537</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>753</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>945</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>617</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>431</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>647</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>475</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>779</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>807</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>383</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>398</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>634</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="n">
+        <f aca="false">RANDBETWEEN(1,1000)</f>
+        <v>466</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
